--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_12_8.xlsx
@@ -522,272 +522,272 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9709239388800747</v>
+        <v>0.9691713577593245</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7772877352468108</v>
+        <v>0.7676974896817333</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9173221944826148</v>
+        <v>0.8964133271497461</v>
       </c>
       <c r="E2" t="n">
-        <v>0.789047474022448</v>
+        <v>0.7517783608416082</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8493224166082255</v>
+        <v>0.8441446859970901</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1944317545918919</v>
+        <v>0.2061512726162417</v>
       </c>
       <c r="H2" t="n">
-        <v>1.489277939900261</v>
+        <v>1.553407956152954</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03749238783142088</v>
+        <v>0.1442339144393341</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4250261293173041</v>
+        <v>0.4147108381864206</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2312594907275006</v>
+        <v>0.2794723763128774</v>
       </c>
       <c r="L2" t="n">
-        <v>2.599051078243279</v>
+        <v>1.203789186192115</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4409441626690299</v>
+        <v>0.4540388448318511</v>
       </c>
       <c r="N2" t="n">
-        <v>1.015507232597294</v>
+        <v>1.01644194252836</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4597160685541011</v>
+        <v>0.4733682184463226</v>
       </c>
       <c r="P2" t="n">
-        <v>141.2753481072586</v>
+        <v>141.1582900931892</v>
       </c>
       <c r="Q2" t="n">
-        <v>225.3777800231644</v>
+        <v>225.2607220090951</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_4</t>
+          <t>model_12_8_6</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9691234662192114</v>
+        <v>0.9697492408411404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7770927930608074</v>
+        <v>0.767513127580461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9398401345331245</v>
+        <v>0.8934232639278501</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8351722527118453</v>
+        <v>0.6862598769675543</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8829241869917628</v>
+        <v>0.8124610986547163</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2064715235654984</v>
+        <v>0.2022869657872315</v>
       </c>
       <c r="H3" t="n">
-        <v>1.490581519195692</v>
+        <v>1.554640786373072</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02728104590894002</v>
+        <v>0.1483972735959565</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3320941482418183</v>
+        <v>0.5241744025083621</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1796875970753792</v>
+        <v>0.3362858863387497</v>
       </c>
       <c r="L3" t="n">
-        <v>2.387114736028008</v>
+        <v>1.216578086393696</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4543913770809239</v>
+        <v>0.4497632330318159</v>
       </c>
       <c r="N3" t="n">
-        <v>1.016467484683087</v>
+        <v>1.016133738218058</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4737357587230808</v>
+        <v>0.4689105850002233</v>
       </c>
       <c r="P3" t="n">
-        <v>141.1551855529988</v>
+        <v>141.1961359340033</v>
       </c>
       <c r="Q3" t="n">
-        <v>225.2576174689046</v>
+        <v>225.2985678499091</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_6</t>
+          <t>model_12_8_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9718829521581021</v>
+        <v>0.9677923072062385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7768467732868986</v>
+        <v>0.7673981781905433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8932730544263521</v>
+        <v>0.8998754560401523</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7428452683746851</v>
+        <v>0.8161599503495318</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8154439213183196</v>
+        <v>0.8754818905860661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1880188283858726</v>
+        <v>0.2153729900146716</v>
       </c>
       <c r="H4" t="n">
-        <v>1.492226654556637</v>
+        <v>1.555409453472745</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04839809197244287</v>
+        <v>0.1394132518153047</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5181141098541211</v>
+        <v>0.3071467150941233</v>
       </c>
       <c r="K4" t="n">
-        <v>0.283256100913282</v>
+        <v>0.2232799834547139</v>
       </c>
       <c r="L4" t="n">
-        <v>2.789800710338104</v>
+        <v>1.189115912735138</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4336113794469336</v>
+        <v>0.4640829559622628</v>
       </c>
       <c r="N4" t="n">
-        <v>1.014995758849012</v>
+        <v>1.017177436156673</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4520711135692863</v>
+        <v>0.4838399281817323</v>
       </c>
       <c r="P4" t="n">
-        <v>141.3424263403566</v>
+        <v>141.0707678333379</v>
       </c>
       <c r="Q4" t="n">
-        <v>225.4448582562624</v>
+        <v>225.1731997492438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_3</t>
+          <t>model_12_8_7</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9662100719376711</v>
+        <v>0.9697530573383019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7760174583314819</v>
+        <v>0.7670022426784797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9600711317347909</v>
+        <v>0.8907336468933182</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8798572062340756</v>
+        <v>0.6217499274662254</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9152428917179906</v>
+        <v>0.7813640538111811</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2259534045411059</v>
+        <v>0.2022614448531403</v>
       </c>
       <c r="H5" t="n">
-        <v>1.497772287482152</v>
+        <v>1.558057076065029</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01810677733039424</v>
+        <v>0.1521422919709943</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2420631199511299</v>
+        <v>0.6319529802333628</v>
       </c>
       <c r="K5" t="n">
-        <v>0.130084948640762</v>
+        <v>0.3920476361021785</v>
       </c>
       <c r="L5" t="n">
-        <v>2.151132419045643</v>
+        <v>1.226881260741611</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4753455632917025</v>
+        <v>0.4497348606158303</v>
       </c>
       <c r="N5" t="n">
-        <v>1.018021294966575</v>
+        <v>1.016131702752906</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4955820080219975</v>
+        <v>0.4688810047117503</v>
       </c>
       <c r="P5" t="n">
-        <v>140.9748529511273</v>
+        <v>141.1963882739799</v>
       </c>
       <c r="Q5" t="n">
-        <v>225.0772848670331</v>
+        <v>225.2988201898858</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_7</t>
+          <t>model_12_8_3</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9722142241968634</v>
+        <v>0.9653178324007217</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7759579282079367</v>
+        <v>0.7663979594312924</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8683385437487194</v>
+        <v>0.9041278435960749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6975558053536086</v>
+        <v>0.8763252461773008</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7820335762165834</v>
+        <v>0.905161715884409</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1858036107373072</v>
+        <v>0.231919814433072</v>
       </c>
       <c r="H6" t="n">
-        <v>1.49817036569241</v>
+        <v>1.56209792092144</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05970529030532473</v>
+        <v>0.1334922343134637</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6093631009600901</v>
+        <v>0.2066268718320035</v>
       </c>
       <c r="K6" t="n">
-        <v>0.3345341956327074</v>
+        <v>0.1700595247379578</v>
       </c>
       <c r="L6" t="n">
-        <v>2.960709333737338</v>
+        <v>1.174470312972248</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4310494295754342</v>
+        <v>0.4815805378470687</v>
       </c>
       <c r="N6" t="n">
-        <v>1.014819080428339</v>
+        <v>1.018497156052949</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4494000961877899</v>
+        <v>0.5020824183523622</v>
       </c>
       <c r="P6" t="n">
-        <v>141.3661300386577</v>
+        <v>140.9227271890048</v>
       </c>
       <c r="Q6" t="n">
-        <v>225.4685619545636</v>
+        <v>225.0251591049107</v>
       </c>
     </row>
     <row r="7">
@@ -797,217 +797,217 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9720848199689706</v>
+        <v>0.9693542169646031</v>
       </c>
       <c r="C7" t="n">
-        <v>0.774764904256144</v>
+        <v>0.7662771448784155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8430631897214316</v>
+        <v>0.8882584964119218</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6538702054739705</v>
+        <v>0.5596327978116166</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7496256085101765</v>
+        <v>0.7514649764890547</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1866689374050786</v>
+        <v>0.2049284922685549</v>
       </c>
       <c r="H7" t="n">
-        <v>1.506148122351418</v>
+        <v>1.562905808392827</v>
       </c>
       <c r="I7" t="n">
-        <v>0.07116705286466454</v>
+        <v>0.1555886874670085</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6973806363638754</v>
+        <v>0.7357338068854635</v>
       </c>
       <c r="K7" t="n">
-        <v>0.3842738446142699</v>
+        <v>0.445661247176236</v>
       </c>
       <c r="L7" t="n">
-        <v>3.113726351676058</v>
+        <v>1.234753420022231</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4320520077549445</v>
+        <v>0.4526902829402846</v>
       </c>
       <c r="N7" t="n">
-        <v>1.014888096016549</v>
+        <v>1.016344417618878</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4504453561960249</v>
+        <v>0.4719622454831242</v>
       </c>
       <c r="P7" t="n">
-        <v>141.3568372386499</v>
+        <v>141.1701883577942</v>
       </c>
       <c r="Q7" t="n">
-        <v>225.4592691545558</v>
+        <v>225.2726202737001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_2</t>
+          <t>model_12_8_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9618402130278697</v>
+        <v>0.9686801583455591</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7737455239277969</v>
+        <v>0.7654175906284156</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9771488184936813</v>
+        <v>0.8859570586656813</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9212782883766801</v>
+        <v>0.5007262977467346</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9449534395286671</v>
+        <v>0.7231290168967519</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2551746711922979</v>
+        <v>0.2094359253578568</v>
       </c>
       <c r="H8" t="n">
-        <v>1.51296472330089</v>
+        <v>1.568653651620459</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01036245887369303</v>
+        <v>0.1587932056337285</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1586081239342597</v>
+        <v>0.8341505448433787</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08448529140397634</v>
+        <v>0.4964719494806739</v>
       </c>
       <c r="L8" t="n">
-        <v>1.888584707033302</v>
+        <v>1.240653928871484</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5051481675630408</v>
+        <v>0.4576416997585084</v>
       </c>
       <c r="N8" t="n">
-        <v>1.020351886385136</v>
+        <v>1.016703915549035</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5266533708570623</v>
+        <v>0.4771244543661456</v>
       </c>
       <c r="P8" t="n">
-        <v>140.7316139665022</v>
+        <v>141.1266748638949</v>
       </c>
       <c r="Q8" t="n">
-        <v>224.834045882408</v>
+        <v>225.2291067798008</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_9</t>
+          <t>model_12_8_10</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.971624707770376</v>
+        <v>0.9678253894809004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7733768730554674</v>
+        <v>0.7644805389828691</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8178978470169628</v>
+        <v>0.8838105680805743</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6122476849955676</v>
+        <v>0.4454675917713522</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7185882450059982</v>
+        <v>0.6965526872398697</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1897457097957027</v>
+        <v>0.2151517686916784</v>
       </c>
       <c r="H9" t="n">
-        <v>1.515429893381638</v>
+        <v>1.574919720288956</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08257892794628074</v>
+        <v>0.1617819756258365</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7812414893656939</v>
+        <v>0.9264728111447657</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4319098944893066</v>
+        <v>0.5441273666244524</v>
       </c>
       <c r="L9" t="n">
-        <v>3.250663154966498</v>
+        <v>1.244733116493407</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4355981058219866</v>
+        <v>0.463844552292768</v>
       </c>
       <c r="N9" t="n">
-        <v>1.015133489189133</v>
+        <v>1.017159792276853</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4541424189992159</v>
+        <v>0.4835913751744634</v>
       </c>
       <c r="P9" t="n">
-        <v>141.3241409454686</v>
+        <v>141.0728231979876</v>
       </c>
       <c r="Q9" t="n">
-        <v>225.4265728613745</v>
+        <v>225.1752551138934</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_10</t>
+          <t>model_12_8_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9709345970017099</v>
+        <v>0.961383427761295</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7718760328666845</v>
+        <v>0.7644060730803104</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7932088952305538</v>
+        <v>0.9096845945393401</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5729728909987799</v>
+        <v>0.9283442245923462</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6891620465126088</v>
+        <v>0.9315528546013252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1943604836834404</v>
+        <v>0.2582291963731851</v>
       </c>
       <c r="H10" t="n">
-        <v>1.525466018634764</v>
+        <v>1.575417674122249</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09377477125313601</v>
+        <v>0.1257550233570867</v>
       </c>
       <c r="J10" t="n">
-        <v>0.8603721544043551</v>
+        <v>0.1197173090185089</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4770731332700465</v>
+        <v>0.1227361832272433</v>
       </c>
       <c r="L10" t="n">
-        <v>3.373173363115764</v>
+        <v>1.163727620868319</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4408633390104471</v>
+        <v>0.5081625688430673</v>
       </c>
       <c r="N10" t="n">
-        <v>1.015501548265755</v>
+        <v>1.020595505193976</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4596318040650445</v>
+        <v>0.5297961014402505</v>
       </c>
       <c r="P10" t="n">
-        <v>141.2760813617039</v>
+        <v>140.7078154607628</v>
       </c>
       <c r="Q10" t="n">
-        <v>225.3785132776097</v>
+        <v>224.8102473766686</v>
       </c>
     </row>
     <row r="11">
@@ -1017,217 +1017,217 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9700916630977117</v>
+        <v>0.9668595062958327</v>
       </c>
       <c r="C11" t="n">
-        <v>0.770323732382775</v>
+        <v>0.7635066554990142</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7692790200288023</v>
+        <v>0.8818105177598714</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5361950514094851</v>
+        <v>0.3940326789181838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.661486507141688</v>
+        <v>0.6718145494828278</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1999971865808305</v>
+        <v>0.2216106339977085</v>
       </c>
       <c r="H11" t="n">
-        <v>1.535846259118353</v>
+        <v>1.581432083629814</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1046263916633186</v>
+        <v>0.1645668424324734</v>
       </c>
       <c r="J11" t="n">
-        <v>0.934471967776365</v>
+        <v>1.012406559280929</v>
       </c>
       <c r="K11" t="n">
-        <v>0.519549465823688</v>
+        <v>0.588486625009359</v>
       </c>
       <c r="L11" t="n">
-        <v>3.482774951114838</v>
+        <v>1.247341805176515</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4472104499906398</v>
+        <v>0.4707553865838484</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015951113014554</v>
+        <v>1.017674929975556</v>
       </c>
       <c r="O11" t="n">
-        <v>0.466249124699995</v>
+        <v>0.4907964179887143</v>
       </c>
       <c r="P11" t="n">
-        <v>141.2189039592578</v>
+        <v>141.0136666758122</v>
       </c>
       <c r="Q11" t="n">
-        <v>225.3213358751636</v>
+        <v>225.116098591718</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_1</t>
+          <t>model_12_8_12</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9555814095533711</v>
+        <v>0.9658337304925908</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7698702312081732</v>
+        <v>0.7625248845532229</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9901043995255678</v>
+        <v>0.8799500616668292</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9570542416876485</v>
+        <v>0.3464380823734725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9703497753040518</v>
+        <v>0.6489196024482384</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2970273188454102</v>
+        <v>0.2284700015172504</v>
       </c>
       <c r="H12" t="n">
-        <v>1.538878823561096</v>
+        <v>1.587997190464961</v>
       </c>
       <c r="I12" t="n">
-        <v>0.004487415800292243</v>
+        <v>0.1671573384640421</v>
       </c>
       <c r="J12" t="n">
-        <v>0.08652690619138426</v>
+        <v>1.091924183502268</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04550707350616606</v>
+        <v>0.6295407609831551</v>
       </c>
       <c r="L12" t="n">
-        <v>1.597110948562619</v>
+        <v>1.24879195644392</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5450021273769583</v>
+        <v>0.4779853570113319</v>
       </c>
       <c r="N12" t="n">
-        <v>1.023689914904869</v>
+        <v>1.018222010403952</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5682039962493284</v>
+        <v>0.4983341832253978</v>
       </c>
       <c r="P12" t="n">
-        <v>140.4278623235302</v>
+        <v>140.9527007233096</v>
       </c>
       <c r="Q12" t="n">
-        <v>224.530294239436</v>
+        <v>225.0551326392155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_12</t>
+          <t>model_12_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.969154832885855</v>
+        <v>0.964785426384536</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7687651257345541</v>
+        <v>0.7615558609034696</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7463214255807138</v>
+        <v>0.878224941361389</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5019680429666007</v>
+        <v>0.3025917467223289</v>
       </c>
       <c r="F13" t="n">
-        <v>0.6356294857654414</v>
+        <v>0.6278234619317113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2062617745212221</v>
+        <v>0.2354800159148099</v>
       </c>
       <c r="H13" t="n">
-        <v>1.54626866895173</v>
+        <v>1.594477056072804</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1150371062358434</v>
+        <v>0.1695593931655396</v>
       </c>
       <c r="J13" t="n">
-        <v>1.003432378888664</v>
+        <v>1.165179483366298</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5592347425622536</v>
+        <v>0.6673693622015525</v>
       </c>
       <c r="L13" t="n">
-        <v>3.580828345048269</v>
+        <v>1.249356894720137</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4541605162508319</v>
+        <v>0.4852628317878981</v>
       </c>
       <c r="N13" t="n">
-        <v>1.016450755794211</v>
+        <v>1.018781105928247</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4734950696695039</v>
+        <v>0.505921475169652</v>
       </c>
       <c r="P13" t="n">
-        <v>141.1572183336182</v>
+        <v>140.8922584544751</v>
       </c>
       <c r="Q13" t="n">
-        <v>225.259650249524</v>
+        <v>224.9946903703809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_13</t>
+          <t>model_12_8_1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9681684238997068</v>
+        <v>0.9555653039823018</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7672328560794145</v>
+        <v>0.7610526222276551</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7244888410046335</v>
+        <v>0.9172092107892663</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4702721531811801</v>
+        <v>0.9680351548615267</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6115998326095839</v>
+        <v>0.9529648916196182</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2128578959535915</v>
+        <v>0.29713501687331</v>
       </c>
       <c r="H14" t="n">
-        <v>1.556514963191101</v>
+        <v>1.597842215415176</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1249376560045062</v>
+        <v>0.1152777599551663</v>
       </c>
       <c r="J14" t="n">
-        <v>1.067293104368665</v>
+        <v>0.05340456120111491</v>
       </c>
       <c r="K14" t="n">
-        <v>0.5961153801865855</v>
+        <v>0.08434113134540676</v>
       </c>
       <c r="L14" t="n">
-        <v>3.668571139573526</v>
+        <v>1.163095632438914</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4613652522173636</v>
+        <v>0.5451009235667373</v>
       </c>
       <c r="N14" t="n">
-        <v>1.016976840586823</v>
+        <v>1.023698504542772</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4810065261619904</v>
+        <v>0.5683069983974427</v>
       </c>
       <c r="P14" t="n">
-        <v>141.0942609821344</v>
+        <v>140.4271372824254</v>
       </c>
       <c r="Q14" t="n">
-        <v>225.1966928980402</v>
+        <v>224.5295691983312</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9671655419999698</v>
+        <v>0.9637415152262031</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7657498484315329</v>
+        <v>0.7606140764703443</v>
       </c>
       <c r="D15" t="n">
-        <v>0.703875027101765</v>
+        <v>0.8766282894568019</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4410439953033795</v>
+        <v>0.2623395932195659</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5893699802319088</v>
+        <v>0.6084515124555128</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2195641718349788</v>
+        <v>0.242460654637351</v>
       </c>
       <c r="H15" t="n">
-        <v>1.566431842161108</v>
+        <v>1.600774772913632</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1342855227106269</v>
+        <v>0.1717825686750814</v>
       </c>
       <c r="J15" t="n">
-        <v>1.126181855533458</v>
+        <v>1.232429882543975</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6302336891220425</v>
+        <v>0.7021062256095283</v>
       </c>
       <c r="L15" t="n">
-        <v>3.747099227342205</v>
+        <v>1.249252927689432</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4685767512745151</v>
+        <v>0.4924029393061652</v>
       </c>
       <c r="N15" t="n">
-        <v>1.017511710933349</v>
+        <v>1.019337858546025</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4885250336638658</v>
+        <v>0.5133655518470319</v>
       </c>
       <c r="P15" t="n">
-        <v>141.0322214691858</v>
+        <v>140.833831661373</v>
       </c>
       <c r="Q15" t="n">
-        <v>225.1346533850917</v>
+        <v>224.9362635772789</v>
       </c>
     </row>
     <row r="16">
@@ -1292,327 +1292,327 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.966170363934436</v>
+        <v>0.9627212056761508</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7643316672447079</v>
+        <v>0.7597094211712292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6845369547750937</v>
+        <v>0.8751560938190777</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4141812759244436</v>
+        <v>0.2254880673937737</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5688812025121466</v>
+        <v>0.5907121536291885</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2262189321415771</v>
+        <v>0.2492834692966436</v>
       </c>
       <c r="H16" t="n">
-        <v>1.57591522628753</v>
+        <v>1.606824207064369</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1430548714257566</v>
+        <v>0.1738324514814964</v>
       </c>
       <c r="J16" t="n">
-        <v>1.180304732648383</v>
+        <v>1.293998757906654</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6616798020370698</v>
+        <v>0.7339156046940751</v>
       </c>
       <c r="L16" t="n">
-        <v>3.81740113997092</v>
+        <v>1.248650849561314</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4756247808320936</v>
+        <v>0.4992829551433171</v>
       </c>
       <c r="N16" t="n">
-        <v>1.018042472568301</v>
+        <v>1.019882023639386</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4958731124311431</v>
+        <v>0.5205384642019676</v>
       </c>
       <c r="P16" t="n">
-        <v>140.9725040446644</v>
+        <v>140.7783291982566</v>
       </c>
       <c r="Q16" t="n">
-        <v>225.0749359605702</v>
+        <v>224.8807611141624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_0</t>
+          <t>model_12_8_16</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9468916773684596</v>
+        <v>0.961737734612984</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7638719617653594</v>
+        <v>0.7588483368658543</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9979274143526643</v>
+        <v>0.8738002819271127</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9841385896153687</v>
+        <v>0.1918268520128785</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9892828295148322</v>
+        <v>0.5745041852816986</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3551355979784511</v>
+        <v>0.2558599448245088</v>
       </c>
       <c r="H17" t="n">
-        <v>1.578989278944683</v>
+        <v>1.612582281779339</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0009398675305600136</v>
+        <v>0.1757202817500118</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03195749294801289</v>
+        <v>1.350237492338977</v>
       </c>
       <c r="K17" t="n">
-        <v>0.01644868023928646</v>
+        <v>0.7629789668146142</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27446709009896</v>
+        <v>1.247700252466381</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5959325448223575</v>
+        <v>0.5058260025191555</v>
       </c>
       <c r="N17" t="n">
-        <v>1.028324438736822</v>
+        <v>1.020406541539742</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6213026270058766</v>
+        <v>0.5273600626505708</v>
       </c>
       <c r="P17" t="n">
-        <v>140.0705111926015</v>
+        <v>140.7262501494809</v>
       </c>
       <c r="Q17" t="n">
-        <v>224.1729431085073</v>
+        <v>224.8286820653868</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_16</t>
+          <t>model_12_8_17</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.965200232388931</v>
+        <v>0.9607999377735803</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7629881790264071</v>
+        <v>0.7580348626284692</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6664902792174796</v>
+        <v>0.872554493722547</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3895637841291896</v>
+        <v>0.161136687109532</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5500569091483701</v>
+        <v>0.5597231263841974</v>
       </c>
       <c r="G18" t="n">
-        <v>0.232706206253414</v>
+        <v>0.2621309966077583</v>
       </c>
       <c r="H18" t="n">
-        <v>1.584899138189502</v>
+        <v>1.618021987750438</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1512386028980634</v>
+        <v>0.1774549152155215</v>
       </c>
       <c r="J18" t="n">
-        <v>1.229903936084092</v>
+        <v>1.401512409603643</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6905712694910776</v>
+        <v>0.789483662409582</v>
       </c>
       <c r="L18" t="n">
-        <v>3.880358310171539</v>
+        <v>1.246512504679908</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4823963165835888</v>
+        <v>0.5119873012172844</v>
       </c>
       <c r="N18" t="n">
-        <v>1.018559876059237</v>
+        <v>1.020906699854091</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5029329264785908</v>
+        <v>0.5337836605899255</v>
       </c>
       <c r="P18" t="n">
-        <v>140.9159570768179</v>
+        <v>140.6778218262408</v>
       </c>
       <c r="Q18" t="n">
-        <v>225.0183889927237</v>
+        <v>224.7802537421466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_17</t>
+          <t>model_12_8_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.964267305415223</v>
+        <v>0.9599133219767967</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7617251856969091</v>
+        <v>0.7572710393106477</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6497299914452581</v>
+        <v>0.8714117509029808</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3670597406260759</v>
+        <v>0.1331998978967323</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5328098639306211</v>
+        <v>0.5462647274335006</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2389446932223339</v>
+        <v>0.2680598005233405</v>
       </c>
       <c r="H19" t="n">
-        <v>1.593344780399406</v>
+        <v>1.623129677793794</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1588389885806541</v>
+        <v>0.1790460684549132</v>
       </c>
       <c r="J19" t="n">
-        <v>1.275244974119988</v>
+        <v>1.44818718505819</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7170419813503213</v>
+        <v>0.8136166267565516</v>
       </c>
       <c r="L19" t="n">
-        <v>3.936748554029523</v>
+        <v>1.245172623295977</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4888196939796247</v>
+        <v>0.5177449183945125</v>
       </c>
       <c r="N19" t="n">
-        <v>1.019057437111881</v>
+        <v>1.021379561612375</v>
       </c>
       <c r="O19" t="n">
-        <v>0.5096297603486001</v>
+        <v>0.5397863914502989</v>
       </c>
       <c r="P19" t="n">
-        <v>140.8630463258828</v>
+        <v>140.6330903741627</v>
       </c>
       <c r="Q19" t="n">
-        <v>224.9654782417887</v>
+        <v>224.7355222900686</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_18</t>
+          <t>model_12_8_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9633793605974247</v>
+        <v>0.9590807957635425</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7605450625916576</v>
+        <v>0.7565574503954413</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6342248325880788</v>
+        <v>0.8703658085027615</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3465257969738041</v>
+        <v>0.1078008175523281</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5170416240252569</v>
+        <v>0.5340260886254833</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2448823843075607</v>
+        <v>0.2736269071448018</v>
       </c>
       <c r="H20" t="n">
-        <v>1.60123626903819</v>
+        <v>1.627901450155554</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1658702036162167</v>
+        <v>0.1805024369481825</v>
       </c>
       <c r="J20" t="n">
-        <v>1.316616664502466</v>
+        <v>1.490622139297094</v>
       </c>
       <c r="K20" t="n">
-        <v>0.741243027372557</v>
+        <v>0.8355623749165904</v>
       </c>
       <c r="L20" t="n">
-        <v>3.987283661050536</v>
+        <v>1.243741194881246</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4948559227770854</v>
+        <v>0.5230935931024215</v>
       </c>
       <c r="N20" t="n">
-        <v>1.019531007681374</v>
+        <v>1.021823575592777</v>
       </c>
       <c r="O20" t="n">
-        <v>0.515922963902685</v>
+        <v>0.5453627703138065</v>
       </c>
       <c r="P20" t="n">
-        <v>140.8139544955116</v>
+        <v>140.5919795064836</v>
       </c>
       <c r="Q20" t="n">
-        <v>224.9163864114175</v>
+        <v>224.6944114223894</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_19</t>
+          <t>model_12_8_0</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.962541388255614</v>
+        <v>0.9474034514761418</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7594481056286038</v>
+        <v>0.7558950804952967</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6199264834753258</v>
+        <v>0.9272419011766876</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3278250090129575</v>
+        <v>0.9922036884781583</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5026543699344552</v>
+        <v>0.9681193461377994</v>
       </c>
       <c r="G21" t="n">
-        <v>0.250485909215757</v>
+        <v>0.351713362163877</v>
       </c>
       <c r="H21" t="n">
-        <v>1.608571625301152</v>
+        <v>1.632330720727753</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1723541595815412</v>
+        <v>0.1013082582121426</v>
       </c>
       <c r="J21" t="n">
-        <v>1.354294921661747</v>
+        <v>0.01302551581299599</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7633245406216442</v>
+        <v>0.05716688038696686</v>
       </c>
       <c r="L21" t="n">
-        <v>4.032579307189272</v>
+        <v>1.180307193503762</v>
       </c>
       <c r="M21" t="n">
-        <v>0.5004856733371666</v>
+        <v>0.593054265783391</v>
       </c>
       <c r="N21" t="n">
-        <v>1.019977926263673</v>
+        <v>1.028051492546058</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5217923845992991</v>
+        <v>0.6183018136693623</v>
       </c>
       <c r="P21" t="n">
-        <v>140.7687052213501</v>
+        <v>140.0898774943012</v>
       </c>
       <c r="Q21" t="n">
-        <v>224.8711371372559</v>
+        <v>224.1923094102071</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9617559862414483</v>
+        <v>0.9583036252012733</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7584327067059762</v>
+        <v>0.7558937514403257</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6067817642268483</v>
+        <v>0.8694085553572316</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3108184830400129</v>
+        <v>0.08473993543150971</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4895501463324883</v>
+        <v>0.522911224445888</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2557378961009265</v>
+        <v>0.2788238502732372</v>
       </c>
       <c r="H22" t="n">
-        <v>1.615361602572245</v>
+        <v>1.632339608124465</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1783149722677878</v>
+        <v>0.181835314667778</v>
       </c>
       <c r="J22" t="n">
-        <v>1.388559587960097</v>
+        <v>1.52915060033727</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7834368626296941</v>
+        <v>0.8554930235732563</v>
       </c>
       <c r="L22" t="n">
-        <v>4.073189349433313</v>
+        <v>1.242271963999765</v>
       </c>
       <c r="M22" t="n">
-        <v>0.5057053451377852</v>
+        <v>0.5280377356527062</v>
       </c>
       <c r="N22" t="n">
-        <v>1.020396807337894</v>
+        <v>1.022238066559321</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5272342686346803</v>
+        <v>0.5505173952482428</v>
       </c>
       <c r="P22" t="n">
-        <v>140.7272044046879</v>
+        <v>140.5543501151618</v>
       </c>
       <c r="Q22" t="n">
-        <v>224.8296363205938</v>
+        <v>224.6567820310676</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.961023817827189</v>
+        <v>0.957581393973248</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7574962188846415</v>
+        <v>0.7552787125683733</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5947313334925467</v>
+        <v>0.8685345518503519</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2953696927786431</v>
+        <v>0.06381767457391907</v>
       </c>
       <c r="F23" t="n">
-        <v>0.477629676933062</v>
+        <v>0.5128250126931977</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2606339096584035</v>
+        <v>0.2836534138206112</v>
       </c>
       <c r="H23" t="n">
-        <v>1.621623900945641</v>
+        <v>1.636452375893203</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1837795515439166</v>
+        <v>0.1830522757262068</v>
       </c>
       <c r="J23" t="n">
-        <v>1.419685735878912</v>
+        <v>1.564106006990877</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8017323623350244</v>
+        <v>0.8735791413585416</v>
       </c>
       <c r="L23" t="n">
-        <v>4.109619473987792</v>
+        <v>1.240805191044302</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5105231724989606</v>
+        <v>0.5325912258201511</v>
       </c>
       <c r="N23" t="n">
-        <v>1.020787297158833</v>
+        <v>1.022623256547601</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5322572008808985</v>
+        <v>0.55526473691914</v>
       </c>
       <c r="P23" t="n">
-        <v>140.6892770025474</v>
+        <v>140.5200043199092</v>
       </c>
       <c r="Q23" t="n">
-        <v>224.7917089184533</v>
+        <v>224.6224362358151</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9603446389668189</v>
+        <v>0.9569129935222916</v>
       </c>
       <c r="C24" t="n">
-        <v>0.756635140253215</v>
+        <v>0.7547106723322242</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5837038214706942</v>
+        <v>0.8677371028305489</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2813557619025747</v>
+        <v>0.04485480720949386</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4668020316402481</v>
+        <v>0.5036812961745415</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2651755818250303</v>
+        <v>0.2881230107138579</v>
       </c>
       <c r="H24" t="n">
-        <v>1.627381937718892</v>
+        <v>1.640250863567917</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1887802618911694</v>
+        <v>0.1841626424416071</v>
       </c>
       <c r="J24" t="n">
-        <v>1.447920936046221</v>
+        <v>1.59578780010844</v>
       </c>
       <c r="K24" t="n">
-        <v>0.8183505989686951</v>
+        <v>0.8899752212750238</v>
       </c>
       <c r="L24" t="n">
-        <v>4.142293401384745</v>
+        <v>1.239366024296993</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5149520189542228</v>
+        <v>0.5367709108305497</v>
       </c>
       <c r="N24" t="n">
-        <v>1.021149525884363</v>
+        <v>1.022979736788111</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5368745924987371</v>
+        <v>0.559622359773572</v>
       </c>
       <c r="P24" t="n">
-        <v>140.6547261989516</v>
+        <v>140.488735539004</v>
       </c>
       <c r="Q24" t="n">
-        <v>224.7571581148574</v>
+        <v>224.5911674549098</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9597168986583322</v>
+        <v>0.9562965405492225</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7558454615150496</v>
+        <v>0.7541874471829118</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5736348372139084</v>
+        <v>0.8670103742212114</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2686515460753596</v>
+        <v>0.02768174855079319</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4569761147122773</v>
+        <v>0.4953988938623718</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2693732841583587</v>
+        <v>0.2922452345832764</v>
       </c>
       <c r="H25" t="n">
-        <v>1.63266252307714</v>
+        <v>1.6437496725506</v>
       </c>
       <c r="I25" t="n">
-        <v>0.193346303048908</v>
+        <v>0.1851745381727437</v>
       </c>
       <c r="J25" t="n">
-        <v>1.473517328665987</v>
+        <v>1.624479309739596</v>
       </c>
       <c r="K25" t="n">
-        <v>0.8334313859944931</v>
+        <v>0.904826833301022</v>
       </c>
       <c r="L25" t="n">
-        <v>4.171620659905895</v>
+        <v>1.237975549141833</v>
       </c>
       <c r="M25" t="n">
-        <v>0.5190118343143619</v>
+        <v>0.5405971092997783</v>
       </c>
       <c r="N25" t="n">
-        <v>1.021484320715556</v>
+        <v>1.023308511707081</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5411072426037338</v>
+        <v>0.5636114474329583</v>
       </c>
       <c r="P25" t="n">
-        <v>140.6233143757163</v>
+        <v>140.4603239694452</v>
       </c>
       <c r="Q25" t="n">
-        <v>224.7257462916222</v>
+        <v>224.5627558853511</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9591387394277836</v>
+        <v>0.9557295625891139</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7551228881336768</v>
+        <v>0.7537067623439073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5644565844128158</v>
+        <v>0.8663488878771674</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2571460543842292</v>
+        <v>0.01213746168120211</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4480686000844841</v>
+        <v>0.4879004856075154</v>
       </c>
       <c r="G26" t="n">
-        <v>0.273239437595216</v>
+        <v>0.2960366188132157</v>
       </c>
       <c r="H26" t="n">
-        <v>1.637494374605524</v>
+        <v>1.646964014282373</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1975084190059049</v>
+        <v>0.1860955906800248</v>
       </c>
       <c r="J26" t="n">
-        <v>1.496698537692581</v>
+        <v>1.650449584767008</v>
       </c>
       <c r="K26" t="n">
-        <v>0.8471026119997255</v>
+        <v>0.9182726242703929</v>
       </c>
       <c r="L26" t="n">
-        <v>4.197942611956456</v>
+        <v>1.236643511178968</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5227230983945669</v>
+        <v>0.5440924726672992</v>
       </c>
       <c r="N26" t="n">
-        <v>1.021792672305182</v>
+        <v>1.023610899952473</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5449765028792087</v>
+        <v>0.5672556156554344</v>
       </c>
       <c r="P26" t="n">
-        <v>140.5948136148038</v>
+        <v>140.434544240206</v>
       </c>
       <c r="Q26" t="n">
-        <v>224.6972455307097</v>
+        <v>224.5369761561118</v>
       </c>
     </row>
   </sheetData>
